--- a/instamart_product.xlsx
+++ b/instamart_product.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Parrys FSSAI Number: 20250115106882430 Address: FF, D.No. 1/3, Re. Sy.No.11514, Francis Joseph Street, VOC Nagar, George Town, Chennai- 600001</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Parrys FSSAI Number: 20250115106882430 Address: FF, D.No. 1/3, Re. Sy.No.11514, Francis Joseph Street, VOC Nagar, George Town, Chennai- 600001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Parrys FSSAI Number: 20250115106882430 Address: FF, D.No. 1/3, Re. Sy.No.11514, Francis Joseph Street, VOC Nagar, George Town, Chennai- 600001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Egmore FSSAI Number: 20241105106630616 Address: U.no B1 -B4,Gf -Prince kushal tower,Anna Salai, chennai,ward - 100, Tamil nadu, 600002"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Egmore FSSAI Number: 20241105106630616 Address: U.no B1 -B4,Gf -Prince kushal tower,Anna Salai, chennai,ward - 100, Tamil nadu, 600002"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Trichy Central FSSAI Number: 20240925106495974 Address: Gf, t.s.no.838 and 979,new t.s.no 16/3,17/1 Trichy town, tiruchirappalli, tamil nadu, 620017</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Egmore FSSAI Number: 20241105106630616 Address: U.no B1 -B4,Gf -Prince kushal tower,Anna Salai, chennai,ward - 100, Tamil nadu, 600002"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Too Yumm! B2G1 Potato Chips - Indian Masala</t>
+          <t>Too Yumm! Chips Indian Masala</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Teynampet FSSAI Number: 20241015106567362 Address: First floor, municipal nos.443 and 445, guna complex, anna salai, corp. ward - 122, chennai, tamil nadu, 600018</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[['No variants']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Teynampet FSSAI Number: 20241015106567362 Address: First floor, municipal nos.443 and 445, guna complex, anna salai, corp. ward - 122, chennai, tamil nadu, 600018</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[['No variants']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Kwickbox Retail Pvt Ltd - Teynampet FSSAI Number: 20241015106567362 Address: First floor, municipal nos.443 and 445, guna complex, anna salai, corp. ward - 122, chennai, tamil nadu, 600018</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
+          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Genuino Marketing Pvt Ltd - Pursaiwakam FSSAI Number: 20230922105165556 Address: FF Mekala Theatre building , door no 128 bricklin road Purasaiwalkam 600007</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[['No variants']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Genuino Marketing Pvt Ltd - Pursaiwakam FSSAI Number: 20230922105165556 Address: FF Mekala Theatre building , door no 128 bricklin road Purasaiwalkam 600007</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[['No variants']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: Genuino Marketing Pvt Ltd - Pursaiwakam FSSAI Number: 20230922105165556 Address: FF Mekala Theatre building , door no 128 bricklin road Purasaiwalkam 600007</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
+          <t>[[{'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}, {'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -910,33 +910,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Too Yumm! B2G1 Potato Chips - Indian Masala</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Too Yumm!</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>70</v>
-      </c>
-      <c r="D14" t="n">
-        <v>49</v>
+          <t>Details not available for this location</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Details not available for this location</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Details not available for this location</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>['Details not available for this location']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.swiggy.com/instamart/item/N5SBE9SBEE?storeId=1402050</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -954,20 +958,24 @@
           <t>Go Zero</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>135</v>
-      </c>
-      <c r="D15" t="n">
-        <v>103</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt Ltd - New Karol Bagh FSSAI Number: 20250325107131904 Address: UG Flr ,Plot 10130, Katra chajju pandit, main Rani Jhasi Road, New Delhi-110005</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '60 ml x 4', 'Price': '400', 'MRP': '500', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '60 ml x 2', 'Price': '202', 'MRP': '250', 'Discount': '19% OFF', 'Status': 'In stock'}, {'Variant Size': '60 ml', 'Price': '102', 'MRP': '125', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -990,20 +998,24 @@
           <t>Go Zero</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>120</v>
-      </c>
-      <c r="D16" t="n">
-        <v>98</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt Ltd - New Karol Bagh FSSAI Number: 20250325107131904 Address: UG Flr ,Plot 10130, Katra chajju pandit, main Rani Jhasi Road, New Delhi-110005</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
+          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1018,33 +1030,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Too Yumm! B2G1 Potato Chips - Indian Masala</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Too Yumm!</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>70</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49</v>
+          <t>Details not available for this location</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Details not available for this location</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Details not available for this location</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>['Details not available for this location']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.swiggy.com/instamart/item/N5SBE9SBEE?storeId=1402050</t>
+          <t>Details not available for this location</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1062,20 +1078,24 @@
           <t>Go Zero</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>135</v>
-      </c>
-      <c r="D18" t="n">
-        <v>103</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt. Ltd. Patel Nagar FSSAI Number: 13322006000126 Address: Plot No BP-08,West Patel Nagar,New Delhi-110008</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '60 ml x 4', 'Price': '400', 'MRP': '500', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '60 ml x 2', 'Price': '202', 'MRP': '250', 'Discount': '19% OFF', 'Status': 'In stock'}, {'Variant Size': '60 ml', 'Price': '102', 'MRP': '125', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1098,20 +1118,24 @@
           <t>Go Zero</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>120</v>
-      </c>
-      <c r="D19" t="n">
-        <v>98</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt. Ltd. Patel Nagar FSSAI Number: 13322006000126 Address: Plot No BP-08,West Patel Nagar,New Delhi-110008</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
+          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1126,7 +1150,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Too Yumm! B2G1 Potato Chips - Indian Masala</t>
+          <t>Too Yumm! Chips Indian Masala</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1134,20 +1158,24 @@
           <t>Too Yumm!</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>70</v>
-      </c>
-      <c r="D20" t="n">
-        <v>49</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt Ltd - Jharsa Village FSSAI Number: 20250116106886225 Address: GF, B-12, sector-45, near greenwood city, Gurgaon-122003</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '84 g', 'Price': '49', 'MRP': '70', 'Discount': '30% OFF', 'Status': 'In stock'}, {'Variant Size': '84 g x 3', 'Price': '141', 'MRP': '210', 'Discount': '32% OFF', 'Status': 'Sold Out'}, {'Variant Size': '84 g x 2', 'Price': '97', 'MRP': '140', 'Discount': '30% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[['No variants']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1170,20 +1198,24 @@
           <t>Go Zero</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>135</v>
-      </c>
-      <c r="D21" t="n">
-        <v>103</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt Ltd - Sector 50 FSSAI Number: 20240903106414148 Address: U.no 105,106,108, 04, 110-112, gf to 7th floor Revenue Estate of Village Badshahpur, Sector 50, Gurgaon, Haryana, 122108</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '70 ml', 'Price': '103', 'MRP': '135', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '70 ml x 4', 'Price': '400', 'MRP': '540', 'Discount': '25% OFF', 'Status': 'Sold Out'}]]</t>
+          <t>[[{'Variant Size': '60 ml x 2', 'Price': '202', 'MRP': '250', 'Discount': '19% OFF', 'Status': 'In stock'}, {'Variant Size': '60 ml', 'Price': '102', 'MRP': '125', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1208,22 +1240,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Seller Name: Kwickbox Retail Pvt Ltd - Arapalayam FSSAI Number: 20241015106567768 Address: Gf, solamalai complex, vallaipillaiyar kovil street,s.s. colony,joint roadcompl, madurai, tamil nadu, 625016</t>
+          <t>Seller Name: PYD Retail Pvt Ltd - Sector 50 FSSAI Number: 20240903106414148 Address: U.no 105,106,108, 04, 110-112, gf to 7th floor Revenue Estate of Village Badshahpur, Sector 50, Gurgaon, Haryana, 122108</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 2', 'Price': '192', 'MRP': '240', 'Discount': '20% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'In stock'}]]</t>
+          <t>[[{'Variant Size': '500 ml', 'Price': '327', 'MRP': '425', 'Discount': '23% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml x 4', 'Price': '379', 'MRP': '480', 'Discount': '21% OFF', 'Status': 'In stock'}, {'Variant Size': '100 ml', 'Price': '98', 'MRP': '120', 'Discount': '18% OFF', 'Status': 'Sold Out'}]]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
